--- a/CV_FB_Logbook.xlsx
+++ b/CV_FB_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francois.brouchou\Desktop\FoodDeliveryPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA3C65A6-32B2-4BC5-A75C-D5BA6CB8743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99C9EE-4C32-427A-858D-CE148A0CE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{989638F6-5E74-44F9-8775-980258B95804}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Clean code et comment</t>
   </si>
   <si>
-    <t>Résolution recherche NPA locatilité</t>
-  </si>
-  <si>
     <t>Test de l'application</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Résolution recherche NPA locatilité avec Javascript</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -533,12 +533,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -588,7 +588,7 @@
         <v>44484</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -616,7 +616,7 @@
         <v>44486</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>44493</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>44498</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -672,7 +672,7 @@
         <v>44504</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -686,7 +686,7 @@
         <v>44505</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -700,7 +700,7 @@
         <v>44506</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -714,7 +714,7 @@
         <v>44506</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -826,7 +826,7 @@
         <v>44567</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>44569</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>44569</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>44570</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1158,18 +1158,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,14 +1192,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2297095C-2229-4300-8DC6-AB8B69F17056}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD23327B-45D7-4C5B-8059-1C426469CD46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1214,4 +1206,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2297095C-2229-4300-8DC6-AB8B69F17056}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>